--- a/biology/Médecine/Ernest_Conseil/Ernest_Conseil.xlsx
+++ b/biology/Médecine/Ernest_Conseil/Ernest_Conseil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest Conseil, né le 10 septembre 1879 à Charleval (Eure) et décédé le 28 juin 1930 à Tunis, est un médecin et biologiste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'origines modestes, il suit des études secondaires au lycée Corneille de Rouen. En 1897, il entame ses études au Collège de médecine de Rouen où il fait la connaissance de Charles Nicolle. Après quatre ans d'internat dans des hôpitaux d'Orléans (1902-1906), il se rend en Tunisie comme médecin assistant à l'hôpital Sadiki de Tunis.
 C'est alors qu'il travaille avec Charles Nicolle et Charles Comte sur une épidémie de typhus exanthématique qui sévit dans la ville. L'équipe démontre en 1909 que le principal agent vecteur de la maladie est le pou. En effet, les médecins notent la rareté des cas de typhus à l'intérieur de l'hôpital Sadiki. Le règlement de cette institution imposait aux malades de ne porter que les habits de l'hôpital. À partir de cette constatation, l'équipe conclut que des actes simples d'hygiène et la suppression du parasite suffisent à assurer la prophylaxie du fléau. Cette découverte épargne de nombreuses vies humaines pendant la Première Guerre mondiale, ce qui vaut à Charles Nicolle le prix Nobel de physiologie ou médecine en 1928. Au cours de son travail, Ernest Conseil contracte par accident une ostéomyélite, ce qui le laisse infirme d'un bras pour le reste de sa vie.
